--- a/config/jo_excel/Job-Order-Employees.xlsx
+++ b/config/jo_excel/Job-Order-Employees.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>Office Assignment</t>
+  </si>
+  <si>
+    <t>sdasd</t>
+  </si>
+  <si>
+    <t>2024-02-15 to 2024-02-26</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
 </sst>
 </file>
@@ -375,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,6 +416,29 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
